--- a/t3_O7KI_Rp6KVfCyGvTxGA_26e91b3aa1d44284956a4ae860d114e1_Cosmetics-Inc.---Data-for-Cleaning.xlsx
+++ b/t3_O7KI_Rp6KVfCyGvTxGA_26e91b3aa1d44284956a4ae860d114e1_Cosmetics-Inc.---Data-for-Cleaning.xlsx
@@ -1,17 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2040e8651b39b965/Documents/My Tableau Repository/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{112A78FF-7E4D-46C5-9C12-629C4F1E8777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="77">
   <si>
     <t>Product Codes</t>
   </si>
@@ -224,34 +246,55 @@
   </si>
   <si>
     <t>CHEMD584</t>
+  </si>
+  <si>
+    <t>Left</t>
+  </si>
+  <si>
+    <t>Right</t>
+  </si>
+  <si>
+    <t>Mid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Concatenate </t>
+  </si>
+  <si>
+    <t>Trim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Rockland's</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -262,55 +305,49 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -500,29 +537,35 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="16.0"/>
-    <col customWidth="1" min="2" max="2" width="7.75"/>
-    <col customWidth="1" min="3" max="3" width="19.63"/>
-    <col customWidth="1" min="4" max="4" width="11.63"/>
-    <col customWidth="1" min="5" max="5" width="7.25"/>
-    <col customWidth="1" min="6" max="6" width="10.63"/>
-    <col customWidth="1" min="7" max="7" width="6.0"/>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="7.77734375" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="7.21875" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" customWidth="1"/>
+    <col min="7" max="7" width="6" customWidth="1"/>
+    <col min="12" max="12" width="20.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -541,622 +584,1232 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="G1" s="1"/>
+      <c r="H1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>9.98</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3">
-        <v>191.0</v>
-      </c>
-      <c r="F2" s="6">
+      <c r="E2" s="2">
+        <v>191</v>
+      </c>
+      <c r="F2" s="3">
         <v>1906.18</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="H2" t="str">
+        <f>LEFT(A2, 5)</f>
+        <v>51993</v>
+      </c>
+      <c r="I2" t="str">
+        <f>RIGHT(A2, 4)</f>
+        <v>Masc</v>
+      </c>
+      <c r="J2" t="str">
+        <f>MID(D2, 4, 2)</f>
+        <v>NC</v>
+      </c>
+      <c r="K2" t="str">
+        <f>_xlfn.CONCAT(H2, I2)</f>
+        <v>51993Masc</v>
+      </c>
+      <c r="L2" t="str">
+        <f>TRIM(C2)</f>
+        <v>Candy's Beauty Supply</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>14.49</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="3">
-        <v>152.0</v>
-      </c>
-      <c r="F3" s="6">
+      <c r="E3" s="2">
+        <v>152</v>
+      </c>
+      <c r="F3" s="3">
         <v>2202.48</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="s">
+      <c r="H3" t="str">
+        <f t="shared" ref="H3:H31" si="0">LEFT(A3, 5)</f>
+        <v>49631</v>
+      </c>
+      <c r="I3" t="str">
+        <f t="shared" ref="I3:I31" si="1">RIGHT(A3, 4)</f>
+        <v>Foun</v>
+      </c>
+      <c r="J3" t="str">
+        <f t="shared" ref="J3:J31" si="2">MID(D3, 4, 2)</f>
+        <v>VA</v>
+      </c>
+      <c r="K3" t="str">
+        <f t="shared" ref="K3:K31" si="3">_xlfn.CONCAT(H3, I3)</f>
+        <v>49631Foun</v>
+      </c>
+      <c r="L3" t="str">
+        <f t="shared" ref="L3:L31" si="4">TRIM(C3)</f>
+        <v>Rockland's</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>6.74</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="3">
-        <v>758.0</v>
-      </c>
-      <c r="F4" s="6">
+      <c r="E4" s="2">
+        <v>758</v>
+      </c>
+      <c r="F4" s="3">
         <v>5108.92</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="s">
+      <c r="H4" t="str">
+        <f t="shared" si="0"/>
+        <v>42292</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" si="1"/>
+        <v>Glos</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" si="2"/>
+        <v>MD</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" si="3"/>
+        <v>42292Glos</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" si="4"/>
+        <v>Rudiger Pharmacy</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>5.71</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="3">
-        <v>308.0</v>
-      </c>
-      <c r="F5" s="6">
+      <c r="E5" s="2">
+        <v>308</v>
+      </c>
+      <c r="F5" s="3">
         <v>1758.68</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="s">
+      <c r="H5" t="str">
+        <f t="shared" si="0"/>
+        <v>86661</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="1"/>
+        <v>Shad</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="2"/>
+        <v>SC</v>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" si="3"/>
+        <v>86661Shad</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" si="4"/>
+        <v>Elizabethtown Supply</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>7.94</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="3">
-        <v>50.0</v>
-      </c>
-      <c r="F6" s="7">
-        <v>397.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="s">
+      <c r="E6" s="2">
+        <v>50</v>
+      </c>
+      <c r="F6" s="3">
+        <v>397</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="0"/>
+        <v>49541</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="1"/>
+        <v>Eyel</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="2"/>
+        <v>VA</v>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" si="3"/>
+        <v>49541Eyel</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="4"/>
+        <v>Rockland's</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>13.57</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="3">
-        <v>673.0</v>
-      </c>
-      <c r="F7" s="6">
+      <c r="E7" s="2">
+        <v>673</v>
+      </c>
+      <c r="F7" s="3">
         <v>9132.61</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="s">
+      <c r="H7" t="str">
+        <f t="shared" si="0"/>
+        <v>58337</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="1"/>
+        <v>Foun</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="2"/>
+        <v>NC</v>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" si="3"/>
+        <v>58337Foun</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="4"/>
+        <v>Candy's Beauty Supply</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="4">
-        <v>8.46</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="B8" s="3">
+        <v>8.4600000000000009</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="3">
-        <v>94.0</v>
-      </c>
-      <c r="F8" s="6">
-        <v>795.2400000000001</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="s">
+      <c r="E8" s="2">
+        <v>94</v>
+      </c>
+      <c r="F8" s="3">
+        <v>795.24000000000012</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="0"/>
+        <v>40014</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="1"/>
+        <v>Masc</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="2"/>
+        <v>SC</v>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="3"/>
+        <v>40014Masc</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="4"/>
+        <v>Elizabethtown Supply</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>5.55</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="3">
-        <v>299.0</v>
-      </c>
-      <c r="F9" s="6">
+      <c r="E9" s="2">
+        <v>299</v>
+      </c>
+      <c r="F9" s="3">
         <v>1659.45</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="s">
+      <c r="H9" t="str">
+        <f t="shared" si="0"/>
+        <v>86139</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="1"/>
+        <v>Lips</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="2"/>
+        <v>NC</v>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="3"/>
+        <v>86139Lips</v>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="4"/>
+        <v>Candy's Beauty Supply</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>11.05</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="3">
-        <v>850.0</v>
-      </c>
-      <c r="F10" s="6">
+      <c r="E10" s="2">
+        <v>850</v>
+      </c>
+      <c r="F10" s="3">
         <v>9392.5</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="s">
+      <c r="H10" t="str">
+        <f t="shared" si="0"/>
+        <v>69601</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="1"/>
+        <v>Exfo</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="2"/>
+        <v>VA</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="3"/>
+        <v>69601Exfo</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="4"/>
+        <v>Rockland's</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>7.58</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="5" t="s">
+      <c r="C11" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="3">
-        <v>169.0</v>
-      </c>
-      <c r="F11" s="6">
+      <c r="E11" s="2">
+        <v>169</v>
+      </c>
+      <c r="F11" s="3">
         <v>1281.02</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="s">
+      <c r="H11" t="str">
+        <f t="shared" si="0"/>
+        <v>25331</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="1"/>
+        <v>Glos</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="2"/>
+        <v>VA</v>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" si="3"/>
+        <v>25331Glos</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="4"/>
+        <v>Rockland's</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="4">
         <v>11.75</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="10" t="str">
+      <c r="F12" s="4" t="e">
         <f>(B12*E12)</f>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="3" t="s">
+      <c r="H12" t="str">
+        <f t="shared" si="0"/>
+        <v>85021</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="1"/>
+        <v>Foun</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="2"/>
+        <v>MD</v>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" si="3"/>
+        <v>85021Foun</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="4"/>
+        <v>Rudiger Pharmacy</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>10.95</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="3">
-        <v>461.0</v>
-      </c>
-      <c r="F13" s="6">
+      <c r="E13" s="2">
+        <v>461</v>
+      </c>
+      <c r="F13" s="3">
         <v>5047.95</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="3" t="s">
+      <c r="H13" t="str">
+        <f t="shared" si="0"/>
+        <v>69030</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="1"/>
+        <v>Masc</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="2"/>
+        <v>SC</v>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" si="3"/>
+        <v>69030Masc</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="4"/>
+        <v>Elizabethtown Supply</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <v>11.73</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="3">
-        <v>78.0</v>
-      </c>
-      <c r="F14" s="6">
+      <c r="E14" s="2">
+        <v>78</v>
+      </c>
+      <c r="F14" s="3">
         <v>914.94</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="3" t="s">
+      <c r="H14" t="str">
+        <f t="shared" si="0"/>
+        <v>13230</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="1"/>
+        <v>Masc</v>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" si="2"/>
+        <v>VA</v>
+      </c>
+      <c r="K14" t="str">
+        <f t="shared" si="3"/>
+        <v>13230Masc</v>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" si="4"/>
+        <v>Rockland's</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="3">
         <v>6.66</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="3">
-        <v>444.0</v>
-      </c>
-      <c r="F15" s="6">
+      <c r="E15" s="2">
+        <v>444</v>
+      </c>
+      <c r="F15" s="3">
         <v>2957.04</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="3" t="s">
+      <c r="H15" t="str">
+        <f t="shared" si="0"/>
+        <v>91559</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="1"/>
+        <v>Eyel</v>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" si="2"/>
+        <v>NC</v>
+      </c>
+      <c r="K15" t="str">
+        <f t="shared" si="3"/>
+        <v>91559Eyel</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" si="4"/>
+        <v>Candy's Beauty Supply</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="3">
         <v>12.06</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="3">
-        <v>797.0</v>
-      </c>
-      <c r="F16" s="6">
+      <c r="E16" s="2">
+        <v>797</v>
+      </c>
+      <c r="F16" s="3">
         <v>9611.82</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="3" t="s">
+      <c r="H16" t="str">
+        <f t="shared" si="0"/>
+        <v>62289</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="1"/>
+        <v>Masc</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" si="2"/>
+        <v>SC</v>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" si="3"/>
+        <v>62289Masc</v>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" si="4"/>
+        <v>Elizabethtown Supply</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="3">
         <v>12.95</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="3">
-        <v>355.0</v>
-      </c>
-      <c r="F17" s="6">
+      <c r="E17" s="2">
+        <v>355</v>
+      </c>
+      <c r="F17" s="3">
         <v>4597.25</v>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="3" t="s">
+      <c r="H17" t="str">
+        <f t="shared" si="0"/>
+        <v>64762</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="1"/>
+        <v>Foun</v>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" si="2"/>
+        <v>MD</v>
+      </c>
+      <c r="K17" t="str">
+        <f t="shared" si="3"/>
+        <v>64762Foun</v>
+      </c>
+      <c r="L17" t="str">
+        <f t="shared" si="4"/>
+        <v>Rudiger Pharmacy</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="3">
         <v>13.09</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="3">
-        <v>232.0</v>
-      </c>
-      <c r="F18" s="6">
+      <c r="E18" s="2">
+        <v>232</v>
+      </c>
+      <c r="F18" s="3">
         <v>3036.88</v>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="3" t="s">
+      <c r="H18" t="str">
+        <f t="shared" si="0"/>
+        <v>52341</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="1"/>
+        <v>Foun</v>
+      </c>
+      <c r="J18" t="str">
+        <f t="shared" si="2"/>
+        <v>SC</v>
+      </c>
+      <c r="K18" t="str">
+        <f t="shared" si="3"/>
+        <v>52341Foun</v>
+      </c>
+      <c r="L18" t="str">
+        <f t="shared" si="4"/>
+        <v>Elizabethtown Supply</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="3">
         <v>15.77</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E19" s="3">
-        <v>514.0</v>
-      </c>
-      <c r="F19" s="6">
+      <c r="E19" s="2">
+        <v>514</v>
+      </c>
+      <c r="F19" s="3">
         <v>8105.78</v>
       </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="3" t="s">
+      <c r="H19" t="str">
+        <f t="shared" si="0"/>
+        <v>68713</v>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" si="1"/>
+        <v>Exfo</v>
+      </c>
+      <c r="J19" t="str">
+        <f t="shared" si="2"/>
+        <v>VA</v>
+      </c>
+      <c r="K19" t="str">
+        <f t="shared" si="3"/>
+        <v>68713Exfo</v>
+      </c>
+      <c r="L19" t="str">
+        <f t="shared" si="4"/>
+        <v>Rockland's</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="3">
         <v>11.82</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E20" s="3">
-        <v>189.0</v>
-      </c>
-      <c r="F20" s="6">
+      <c r="E20" s="2">
+        <v>189</v>
+      </c>
+      <c r="F20" s="3">
         <v>2233.98</v>
       </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="3" t="s">
+      <c r="H20" t="str">
+        <f t="shared" si="0"/>
+        <v>35073</v>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" si="1"/>
+        <v>Foun</v>
+      </c>
+      <c r="J20" t="str">
+        <f t="shared" si="2"/>
+        <v>SC</v>
+      </c>
+      <c r="K20" t="str">
+        <f t="shared" si="3"/>
+        <v>35073Foun</v>
+      </c>
+      <c r="L20" t="str">
+        <f t="shared" si="4"/>
+        <v>Elizabethtown Supply</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="3">
         <v>11.22</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E21" s="3">
-        <v>621.0</v>
-      </c>
-      <c r="F21" s="6">
-        <v>6967.620000000001</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="3" t="s">
+      <c r="E21" s="2">
+        <v>621</v>
+      </c>
+      <c r="F21" s="3">
+        <v>6967.6200000000008</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="0"/>
+        <v>17691</v>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" si="1"/>
+        <v>Masc</v>
+      </c>
+      <c r="J21" t="str">
+        <f t="shared" si="2"/>
+        <v>SC</v>
+      </c>
+      <c r="K21" t="str">
+        <f t="shared" si="3"/>
+        <v>17691Masc</v>
+      </c>
+      <c r="L21" t="str">
+        <f t="shared" si="4"/>
+        <v>Elizabethtown Supply</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="4">
-        <v>7.0</v>
-      </c>
-      <c r="C22" s="3" t="s">
+      <c r="B22" s="3">
+        <v>7</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="3">
-        <v>461.0</v>
-      </c>
-      <c r="F22" s="6">
-        <v>3227.0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="3" t="s">
+      <c r="E22" s="2">
+        <v>461</v>
+      </c>
+      <c r="F22" s="3">
+        <v>3227</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="0"/>
+        <v>03485</v>
+      </c>
+      <c r="I22" t="str">
+        <f t="shared" si="1"/>
+        <v>Eyel</v>
+      </c>
+      <c r="J22" t="str">
+        <f t="shared" si="2"/>
+        <v>MD</v>
+      </c>
+      <c r="K22" t="str">
+        <f t="shared" si="3"/>
+        <v>03485Eyel</v>
+      </c>
+      <c r="L22" t="str">
+        <f t="shared" si="4"/>
+        <v>Rudiger Pharmacy</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="3">
         <v>12.01</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E23" s="3">
-        <v>146.0</v>
-      </c>
-      <c r="F23" s="6">
+      <c r="E23" s="2">
+        <v>146</v>
+      </c>
+      <c r="F23" s="3">
         <v>1753.46</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="3" t="s">
+      <c r="H23" t="str">
+        <f t="shared" si="0"/>
+        <v>26156</v>
+      </c>
+      <c r="I23" t="str">
+        <f t="shared" si="1"/>
+        <v>Foun</v>
+      </c>
+      <c r="J23" t="str">
+        <f t="shared" si="2"/>
+        <v>NC</v>
+      </c>
+      <c r="K23" t="str">
+        <f t="shared" si="3"/>
+        <v>26156Foun</v>
+      </c>
+      <c r="L23" t="str">
+        <f t="shared" si="4"/>
+        <v>Candy's Beauty Supply</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="3">
         <v>13.24</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E24" s="3">
-        <v>261.0</v>
-      </c>
-      <c r="F24" s="6">
+      <c r="E24" s="2">
+        <v>261</v>
+      </c>
+      <c r="F24" s="3">
         <v>3455.64</v>
       </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="3" t="s">
+      <c r="H24" t="str">
+        <f t="shared" si="0"/>
+        <v>75112</v>
+      </c>
+      <c r="I24" t="str">
+        <f t="shared" si="1"/>
+        <v>Foun</v>
+      </c>
+      <c r="J24" t="str">
+        <f t="shared" si="2"/>
+        <v>SC</v>
+      </c>
+      <c r="K24" t="str">
+        <f t="shared" si="3"/>
+        <v>75112Foun</v>
+      </c>
+      <c r="L24" t="str">
+        <f t="shared" si="4"/>
+        <v>Elizabethtown Supply</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="3">
         <v>10.07</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E25" s="3">
-        <v>602.0</v>
-      </c>
-      <c r="F25" s="6">
+      <c r="E25" s="2">
+        <v>602</v>
+      </c>
+      <c r="F25" s="3">
         <v>6062.14</v>
       </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="3" t="s">
+      <c r="H25" t="str">
+        <f t="shared" si="0"/>
+        <v>96799</v>
+      </c>
+      <c r="I25" t="str">
+        <f t="shared" si="1"/>
+        <v>Foun</v>
+      </c>
+      <c r="J25" t="str">
+        <f t="shared" si="2"/>
+        <v>MD</v>
+      </c>
+      <c r="K25" t="str">
+        <f t="shared" si="3"/>
+        <v>96799Foun</v>
+      </c>
+      <c r="L25" t="str">
+        <f t="shared" si="4"/>
+        <v>Rudiger Pharmacy</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="3">
         <v>4.33</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E26" s="3">
-        <v>225.0</v>
-      </c>
-      <c r="F26" s="6">
+      <c r="E26" s="2">
+        <v>225</v>
+      </c>
+      <c r="F26" s="3">
         <v>974.25</v>
       </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="3" t="s">
+      <c r="H26" t="str">
+        <f t="shared" si="0"/>
+        <v>20559</v>
+      </c>
+      <c r="I26" t="str">
+        <f t="shared" si="1"/>
+        <v>Shad</v>
+      </c>
+      <c r="J26" t="str">
+        <f t="shared" si="2"/>
+        <v>SC</v>
+      </c>
+      <c r="K26" t="str">
+        <f t="shared" si="3"/>
+        <v>20559Shad</v>
+      </c>
+      <c r="L26" t="str">
+        <f t="shared" si="4"/>
+        <v>Elizabethtown Supply</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="3">
         <v>13.13</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E27" s="3">
-        <v>972.0</v>
-      </c>
-      <c r="F27" s="6">
+      <c r="E27" s="2">
+        <v>972</v>
+      </c>
+      <c r="F27" s="3">
         <v>12762.36</v>
       </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="3" t="s">
+      <c r="H27" t="str">
+        <f t="shared" si="0"/>
+        <v>32729</v>
+      </c>
+      <c r="I27" t="str">
+        <f t="shared" si="1"/>
+        <v>Masc</v>
+      </c>
+      <c r="J27" t="str">
+        <f t="shared" si="2"/>
+        <v>SC</v>
+      </c>
+      <c r="K27" t="str">
+        <f t="shared" si="3"/>
+        <v>32729Masc</v>
+      </c>
+      <c r="L27" t="str">
+        <f t="shared" si="4"/>
+        <v>Elizabethtown Supply</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B28" s="4">
-        <v>16.94</v>
-      </c>
-      <c r="C28" s="3" t="s">
+      <c r="B28" s="3">
+        <v>16.940000000000001</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E28" s="3">
-        <v>362.0</v>
-      </c>
-      <c r="F28" s="6">
-        <v>6132.280000000001</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="3" t="s">
+      <c r="E28" s="2">
+        <v>362</v>
+      </c>
+      <c r="F28" s="3">
+        <v>6132.2800000000007</v>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" si="0"/>
+        <v>63094</v>
+      </c>
+      <c r="I28" t="str">
+        <f t="shared" si="1"/>
+        <v>Exfo</v>
+      </c>
+      <c r="J28" t="str">
+        <f t="shared" si="2"/>
+        <v>NC</v>
+      </c>
+      <c r="K28" t="str">
+        <f t="shared" si="3"/>
+        <v>63094Exfo</v>
+      </c>
+      <c r="L28" t="str">
+        <f t="shared" si="4"/>
+        <v>Candy's Beauty Supply</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="3">
         <v>9.83</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E29" s="3">
-        <v>588.0</v>
-      </c>
-      <c r="F29" s="6">
+      <c r="E29" s="2">
+        <v>588</v>
+      </c>
+      <c r="F29" s="3">
         <v>5780.04</v>
       </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="3" t="s">
+      <c r="H29" t="str">
+        <f t="shared" si="0"/>
+        <v>61207</v>
+      </c>
+      <c r="I29" t="str">
+        <f t="shared" si="1"/>
+        <v>Foun</v>
+      </c>
+      <c r="J29" t="str">
+        <f t="shared" si="2"/>
+        <v>MD</v>
+      </c>
+      <c r="K29" t="str">
+        <f t="shared" si="3"/>
+        <v>61207Foun</v>
+      </c>
+      <c r="L29" t="str">
+        <f t="shared" si="4"/>
+        <v>Rudiger Pharmacy</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="3">
         <v>14.95</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E30" s="3">
-        <v>381.0</v>
-      </c>
-      <c r="F30" s="6">
+      <c r="E30" s="2">
+        <v>381</v>
+      </c>
+      <c r="F30" s="3">
         <v>5695.95</v>
       </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="3" t="s">
+      <c r="H30" t="str">
+        <f t="shared" si="0"/>
+        <v>17269</v>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" si="1"/>
+        <v>Masc</v>
+      </c>
+      <c r="J30" t="str">
+        <f t="shared" si="2"/>
+        <v>VA</v>
+      </c>
+      <c r="K30" t="str">
+        <f t="shared" si="3"/>
+        <v>17269Masc</v>
+      </c>
+      <c r="L30" t="str">
+        <f t="shared" si="4"/>
+        <v>Rockland's</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31" s="3">
         <v>20.04</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E31" s="3">
-        <v>782.0</v>
-      </c>
-      <c r="F31" s="7">
+      <c r="E31" s="2">
+        <v>782</v>
+      </c>
+      <c r="F31" s="3">
         <v>15671.28</v>
       </c>
+      <c r="H31" t="str">
+        <f t="shared" si="0"/>
+        <v>15143</v>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" si="1"/>
+        <v>Exfo</v>
+      </c>
+      <c r="J31" t="str">
+        <f t="shared" si="2"/>
+        <v>MD</v>
+      </c>
+      <c r="K31" t="str">
+        <f t="shared" si="3"/>
+        <v>15143Exfo</v>
+      </c>
+      <c r="L31" t="str">
+        <f t="shared" si="4"/>
+        <v>Rudiger Pharmacy</v>
+      </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>